--- a/app/data/absenteeism_data_8.xlsx
+++ b/app/data/absenteeism_data_8.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>59536</v>
+        <v>66229</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leandro Aragão</t>
+          <t>Lívia Rodrigues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,27 +494,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45106</v>
       </c>
       <c r="G2" t="n">
-        <v>4788.69</v>
+        <v>11700.68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>28914</v>
+        <v>67065</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexia Sales</t>
+          <t>Eloah Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45087</v>
+        <v>45089</v>
       </c>
       <c r="G3" t="n">
-        <v>9875.719999999999</v>
+        <v>7055.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>34987</v>
+        <v>65431</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bruno Novaes</t>
+          <t>Sr. João Pedro Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,220 +548,220 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45106</v>
+        <v>45088</v>
       </c>
       <c r="G4" t="n">
-        <v>4996.34</v>
+        <v>12091.66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73165</v>
+        <v>56930</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bárbara Pinto</t>
+          <t>Davi Lucas Cardoso</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45099</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>11673.09</v>
+        <v>4451.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>466</v>
+        <v>58621</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dra. Melissa da Luz</t>
+          <t>Júlia da Conceição</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45088</v>
+        <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>6211.49</v>
+        <v>8222.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30926</v>
+        <v>35199</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sophie Melo</t>
+          <t>Nicolas Viana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G7" t="n">
-        <v>9357.360000000001</v>
+        <v>11688.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20424</v>
+        <v>56573</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luana Costela</t>
+          <t>Ian Moreira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45078</v>
+        <v>45092</v>
       </c>
       <c r="G8" t="n">
-        <v>5054.43</v>
+        <v>4904.81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>29726</v>
+        <v>25782</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Amanda Carvalho</t>
+          <t>Pietra Lopes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45101</v>
+        <v>45082</v>
       </c>
       <c r="G9" t="n">
-        <v>7185.13</v>
+        <v>3191.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>77108</v>
+        <v>47683</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sarah Ramos</t>
+          <t>Rodrigo Silveira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45100</v>
+        <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>11965.6</v>
+        <v>10926.93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>46029</v>
+        <v>43097</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Henrique Carvalho</t>
+          <t>Maria Monteiro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>9975.84</v>
+        <v>7432.14</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_8.xlsx
+++ b/app/data/absenteeism_data_8.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34585</v>
+        <v>12925</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mariana Campos</t>
+          <t>Erick Vieira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45092</v>
+        <v>45096</v>
       </c>
       <c r="G2" t="n">
-        <v>11560.25</v>
+        <v>9067.129999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>74821</v>
+        <v>82031</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cauê da Rosa</t>
+          <t>Dr. Ryan Silva</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45088</v>
+        <v>45092</v>
       </c>
       <c r="G3" t="n">
-        <v>12384.9</v>
+        <v>9627.76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>64561</v>
+        <v>50756</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sr. Thiago Cardoso</t>
+          <t>Dra. Agatha Gomes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,85 +552,85 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45101</v>
+        <v>45089</v>
       </c>
       <c r="G4" t="n">
-        <v>9241.860000000001</v>
+        <v>10515.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>54663</v>
+        <v>96634</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bernardo da Costa</t>
+          <t>Larissa Moreira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45089</v>
+        <v>45105</v>
       </c>
       <c r="G5" t="n">
-        <v>6427.83</v>
+        <v>11303.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>77806</v>
+        <v>47002</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Elisa da Luz</t>
+          <t>João Pedro Campos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45106</v>
+        <v>45093</v>
       </c>
       <c r="G6" t="n">
-        <v>4415.35</v>
+        <v>9881.030000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>32215</v>
+        <v>1520</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Theo Lopes</t>
+          <t>Sra. Mariane da Costa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,27 +639,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45082</v>
+        <v>45099</v>
       </c>
       <c r="G7" t="n">
-        <v>3604.12</v>
+        <v>5813.57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>93268</v>
+        <v>95421</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marcelo Moraes</t>
+          <t>Sr. Miguel Martins</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45080</v>
       </c>
       <c r="G8" t="n">
-        <v>5499.48</v>
+        <v>12009.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14491</v>
+        <v>15352</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Davi Lucca da Luz</t>
+          <t>Srta. Amanda Santos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45090</v>
+        <v>45078</v>
       </c>
       <c r="G9" t="n">
-        <v>11259.99</v>
+        <v>10116.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73747</v>
+        <v>21524</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alana Mendes</t>
+          <t>Carolina Rodrigues</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>8492.92</v>
+        <v>2741.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>45890</v>
+        <v>68817</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rodrigo Viana</t>
+          <t>Clara Monteiro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45078</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>11671.3</v>
+        <v>8144.92</v>
       </c>
     </row>
   </sheetData>
